--- a/data/Soyeon_0917.xlsx
+++ b/data/Soyeon_0917.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raye/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F624E1A8-A909-384D-A3BC-66EF936EB71B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB23A84B-F18C-4745-8192-ADFD9F5C7B9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5020" yWindow="1240" windowWidth="28040" windowHeight="17400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2200" yWindow="760" windowWidth="28040" windowHeight="17360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1280,10 +1280,10 @@
   <dimension ref="A1:T1041"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E242" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E13" sqref="E13"/>
+      <selection pane="bottomRight" activeCell="D260" sqref="D260"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5248,7 +5248,9 @@
       <c r="T119" s="1"/>
     </row>
     <row r="120" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A120" s="4"/>
+      <c r="A120" s="4">
+        <v>99</v>
+      </c>
       <c r="B120" s="4"/>
       <c r="C120" s="1"/>
       <c r="D120" s="1" t="s">
@@ -5276,7 +5278,9 @@
       <c r="T120" s="1"/>
     </row>
     <row r="121" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A121" s="4"/>
+      <c r="A121" s="4">
+        <v>99</v>
+      </c>
       <c r="B121" s="4"/>
       <c r="C121" s="1"/>
       <c r="D121" s="1" t="s">
@@ -5304,7 +5308,9 @@
       <c r="T121" s="1"/>
     </row>
     <row r="122" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A122" s="4"/>
+      <c r="A122" s="4">
+        <v>99</v>
+      </c>
       <c r="B122" s="4"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1" t="s">
@@ -5332,7 +5338,9 @@
       <c r="T122" s="1"/>
     </row>
     <row r="123" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A123" s="4"/>
+      <c r="A123" s="4">
+        <v>99</v>
+      </c>
       <c r="B123" s="4"/>
       <c r="C123" s="1"/>
       <c r="D123" s="1" t="s">
@@ -5360,7 +5368,9 @@
       <c r="T123" s="1"/>
     </row>
     <row r="124" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A124" s="4"/>
+      <c r="A124" s="4">
+        <v>99</v>
+      </c>
       <c r="B124" s="4"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1" t="s">
@@ -5388,7 +5398,9 @@
       <c r="T124" s="1"/>
     </row>
     <row r="125" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A125" s="4"/>
+      <c r="A125" s="4">
+        <v>99</v>
+      </c>
       <c r="B125" s="4"/>
       <c r="C125" s="1"/>
       <c r="D125" s="1" t="s">
@@ -5416,7 +5428,9 @@
       <c r="T125" s="1"/>
     </row>
     <row r="126" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A126" s="4"/>
+      <c r="A126" s="4">
+        <v>99</v>
+      </c>
       <c r="B126" s="4"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1" t="s">
@@ -5444,7 +5458,9 @@
       <c r="T126" s="1"/>
     </row>
     <row r="127" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A127" s="4"/>
+      <c r="A127" s="4">
+        <v>99</v>
+      </c>
       <c r="B127" s="4"/>
       <c r="C127" s="1"/>
       <c r="D127" s="1" t="s">
@@ -5472,7 +5488,9 @@
       <c r="T127" s="1"/>
     </row>
     <row r="128" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A128" s="4"/>
+      <c r="A128" s="4">
+        <v>99</v>
+      </c>
       <c r="B128" s="4"/>
       <c r="C128" s="1"/>
       <c r="D128" s="1" t="s">
@@ -5500,7 +5518,9 @@
       <c r="T128" s="1"/>
     </row>
     <row r="129" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A129" s="4"/>
+      <c r="A129" s="4">
+        <v>99</v>
+      </c>
       <c r="B129" s="4"/>
       <c r="C129" s="1"/>
       <c r="D129" s="1" t="s">
@@ -5528,7 +5548,9 @@
       <c r="T129" s="1"/>
     </row>
     <row r="130" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A130" s="4"/>
+      <c r="A130" s="4">
+        <v>99</v>
+      </c>
       <c r="B130" s="4"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1" t="s">
@@ -5556,7 +5578,9 @@
       <c r="T130" s="1"/>
     </row>
     <row r="131" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A131" s="4"/>
+      <c r="A131" s="4">
+        <v>99</v>
+      </c>
       <c r="B131" s="4"/>
       <c r="C131" s="1"/>
       <c r="D131" s="1" t="s">
@@ -5584,7 +5608,9 @@
       <c r="T131" s="1"/>
     </row>
     <row r="132" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A132" s="4"/>
+      <c r="A132" s="4">
+        <v>99</v>
+      </c>
       <c r="B132" s="4"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1" t="s">
@@ -5612,7 +5638,9 @@
       <c r="T132" s="1"/>
     </row>
     <row r="133" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A133" s="4"/>
+      <c r="A133" s="4">
+        <v>99</v>
+      </c>
       <c r="B133" s="4"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1" t="s">
@@ -5810,7 +5838,9 @@
       <c r="T138" s="1"/>
     </row>
     <row r="139" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A139" s="4"/>
+      <c r="A139" s="4">
+        <v>107</v>
+      </c>
       <c r="B139" s="4"/>
       <c r="C139" s="1"/>
       <c r="D139" s="1" t="s">
@@ -6110,7 +6140,9 @@
       <c r="T147" s="1"/>
     </row>
     <row r="148" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A148" s="4"/>
+      <c r="A148" s="4">
+        <v>115</v>
+      </c>
       <c r="B148" s="4"/>
       <c r="C148" s="1"/>
       <c r="D148" s="1" t="s">
@@ -6274,7 +6306,9 @@
       <c r="T152" s="1"/>
     </row>
     <row r="153" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A153" s="4"/>
+      <c r="A153" s="4">
+        <v>119</v>
+      </c>
       <c r="B153" s="4"/>
       <c r="C153" s="1"/>
       <c r="D153" s="1" t="s">
@@ -6778,7 +6812,9 @@
       <c r="T167" s="1"/>
     </row>
     <row r="168" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A168" s="4"/>
+      <c r="A168" s="4">
+        <v>135</v>
+      </c>
       <c r="B168" s="4"/>
       <c r="C168" s="1"/>
       <c r="D168" s="1" t="s">
@@ -6806,7 +6842,9 @@
       <c r="T168" s="1"/>
     </row>
     <row r="169" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A169" s="4"/>
+      <c r="A169" s="4">
+        <v>135</v>
+      </c>
       <c r="B169" s="4"/>
       <c r="C169" s="1"/>
       <c r="D169" s="1" t="s">
@@ -6834,7 +6872,9 @@
       <c r="T169" s="1"/>
     </row>
     <row r="170" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A170" s="4"/>
+      <c r="A170" s="4">
+        <v>135</v>
+      </c>
       <c r="B170" s="4"/>
       <c r="C170" s="1"/>
       <c r="D170" s="1" t="s">
@@ -6862,7 +6902,9 @@
       <c r="T170" s="1"/>
     </row>
     <row r="171" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A171" s="4"/>
+      <c r="A171" s="4">
+        <v>135</v>
+      </c>
       <c r="B171" s="4"/>
       <c r="C171" s="1"/>
       <c r="D171" s="1" t="s">
@@ -7060,7 +7102,9 @@
       <c r="T176" s="1"/>
     </row>
     <row r="177" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A177" s="4"/>
+      <c r="A177" s="4">
+        <v>142</v>
+      </c>
       <c r="B177" s="4"/>
       <c r="C177" s="1"/>
       <c r="D177" s="1" t="s">
@@ -7394,7 +7438,9 @@
       <c r="T186" s="1"/>
     </row>
     <row r="187" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A187" s="4"/>
+      <c r="A187" s="4">
+        <v>151</v>
+      </c>
       <c r="B187" s="4"/>
       <c r="C187" s="1"/>
       <c r="D187" s="1" t="s">
@@ -8306,7 +8352,9 @@
       <c r="T213" s="1"/>
     </row>
     <row r="214" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A214" s="4"/>
+      <c r="A214" s="4">
+        <v>177</v>
+      </c>
       <c r="B214" s="4"/>
       <c r="C214" s="1"/>
       <c r="D214" s="1" t="s">
@@ -8334,7 +8382,9 @@
       <c r="T214" s="1"/>
     </row>
     <row r="215" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A215" s="4"/>
+      <c r="A215" s="4">
+        <v>177</v>
+      </c>
       <c r="B215" s="4"/>
       <c r="C215" s="1"/>
       <c r="D215" s="1" t="s">
@@ -8362,7 +8412,9 @@
       <c r="T215" s="1"/>
     </row>
     <row r="216" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A216" s="4"/>
+      <c r="A216" s="4">
+        <v>177</v>
+      </c>
       <c r="B216" s="4"/>
       <c r="C216" s="1"/>
       <c r="D216" s="1" t="s">
@@ -8730,7 +8782,9 @@
       <c r="T226" s="1"/>
     </row>
     <row r="227" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A227" s="4"/>
+      <c r="A227" s="4">
+        <v>187</v>
+      </c>
       <c r="B227" s="4"/>
       <c r="C227" s="1"/>
       <c r="D227" s="1" t="s">
@@ -8928,7 +8982,9 @@
       <c r="T232" s="1"/>
     </row>
     <row r="233" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A233" s="4"/>
+      <c r="A233" s="4">
+        <v>192</v>
+      </c>
       <c r="B233" s="4"/>
       <c r="C233" s="1"/>
       <c r="D233" s="1" t="s">
@@ -8988,7 +9044,9 @@
       <c r="T234" s="1"/>
     </row>
     <row r="235" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A235" s="4"/>
+      <c r="A235" s="4">
+        <v>193</v>
+      </c>
       <c r="B235" s="4"/>
       <c r="C235" s="1"/>
       <c r="D235" s="1" t="s">
@@ -9696,7 +9754,9 @@
       <c r="T255" s="1"/>
     </row>
     <row r="256" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A256" s="4"/>
+      <c r="A256" s="4">
+        <v>213</v>
+      </c>
       <c r="B256" s="4"/>
       <c r="C256" s="1"/>
       <c r="D256" s="1" t="s">
@@ -9860,7 +9920,9 @@
       <c r="T260" s="1"/>
     </row>
     <row r="261" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A261" s="1"/>
+      <c r="A261" s="1">
+        <v>218</v>
+      </c>
       <c r="B261" s="1"/>
       <c r="C261" s="1"/>
       <c r="D261" s="1" t="s">
